--- a/reports/refundList.xlsx
+++ b/reports/refundList.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>No.</t>
   </si>
@@ -23,7 +23,7 @@
     <t>Customer Name</t>
   </si>
   <si>
-    <t>Reference No.</t>
+    <t>Refund Type.</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -36,24 +36,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Unknown Unknown</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>00000002</t>
-  </si>
-  <si>
-    <t>2024-04-19 08:59:00</t>
-  </si>
-  <si>
-    <t>00000001</t>
-  </si>
-  <si>
-    <t>2024-04-19 15:49:43</t>
   </si>
 </sst>
 </file>
@@ -122,12 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -429,21 +408,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G3"/>
+      <selection activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="25.708" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -467,52 +446,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2">
-        <v>800.0</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="2">
-        <v>732.0</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/reports/refundList.xlsx
+++ b/reports/refundList.xlsx
@@ -15,15 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
-    <t>Refund Type.</t>
+    <t>Product Name</t>
+  </si>
+  <si>
+    <t>Reference No.</t>
   </si>
   <si>
     <t>Quantity</t>
@@ -36,6 +36,36 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Chippy</t>
+  </si>
+  <si>
+    <t>000001223</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>2024-04-30 10:03:15</t>
+  </si>
+  <si>
+    <t>Mega Sardines</t>
+  </si>
+  <si>
+    <t>000001229</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>2024-04-30 10:37:27</t>
+  </si>
+  <si>
+    <t>Cloud 9</t>
+  </si>
+  <si>
+    <t>Melona Strawberry</t>
   </si>
 </sst>
 </file>
@@ -104,9 +134,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -408,21 +441,21 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1:G1"/>
+      <selection activeCell="A1" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="6.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.71" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="15.139" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="10.426" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="25.708" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -446,6 +479,121 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10000.0</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2">
+        <v>20800.0</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2">
+        <v>20000.0</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
